--- a/StructureDefinition-ext-R5-AuditEvent.entity.xlsx
+++ b/StructureDefinition-ext-R5-AuditEvent.entity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="212">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -409,7 +409,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
 </t>
   </si>
   <si>
@@ -455,15 +455,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>DICOM Audit Event Entity Role</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-object-role-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:securityLabel</t>
   </si>
   <si>
@@ -603,12 +594,6 @@
   </si>
   <si>
     <t>Extension.extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Additional detail about an entity used in an event.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-audit-event-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:detail.extension:value</t>
@@ -1048,8 +1033,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="41.01953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.87109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2494,13 +2479,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2538,13 +2523,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2569,16 +2554,16 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2647,7 +2632,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -2750,7 +2735,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -2855,7 +2840,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -2898,7 +2883,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2960,7 +2945,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>124</v>
@@ -2989,13 +2974,13 @@
         <v>138</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3065,13 +3050,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3096,16 +3081,16 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3174,7 +3159,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -3277,7 +3262,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -3382,7 +3367,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -3425,7 +3410,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3487,7 +3472,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>124</v>
@@ -3513,16 +3498,16 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3592,13 +3577,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3623,14 +3608,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3699,7 +3684,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -3802,7 +3787,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -3813,7 +3798,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
@@ -3905,13 +3890,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3936,14 +3921,14 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4012,10 +3997,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4115,10 +4100,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4220,10 +4205,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4263,7 +4248,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4325,10 +4310,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4354,10 +4339,10 @@
         <v>138</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4384,13 +4369,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -4428,13 +4413,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4459,14 +4444,14 @@
         <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4535,10 +4520,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4638,10 +4623,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4743,10 +4728,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4786,7 +4771,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -4848,10 +4833,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4874,13 +4859,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4951,7 +4936,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>115</v>
@@ -4994,7 +4979,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5056,7 +5041,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>124</v>
@@ -5082,13 +5067,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5159,13 +5144,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5190,16 +5175,16 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5268,7 +5253,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>107</v>
@@ -5371,7 +5356,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>109</v>
@@ -5476,7 +5461,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>115</v>
@@ -5519,7 +5504,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5581,7 +5566,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>124</v>
@@ -5607,13 +5592,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5815,13 +5800,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
